--- a/tab/2022_OCA_midterm_density_biomass_table.xlsx
+++ b/tab/2022_OCA_midterm_density_biomass_table.xlsx
@@ -356,7 +356,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>876.8867387983214</v>
+        <v>292.2955795994405</v>
       </c>
       <c r="G2">
         <v>292.2955795994405</v>
@@ -517,7 +517,7 @@
         <v>6430.502751187691</v>
       </c>
       <c r="W2">
-        <v>3507.546955193286</v>
+        <v>2922.955795994405</v>
       </c>
     </row>
     <row r="3">
@@ -532,70 +532,70 @@
         </is>
       </c>
       <c r="C3">
+        <v>2630.660216394964</v>
+      </c>
+      <c r="D3">
+        <v>6138.207171588249</v>
+      </c>
+      <c r="E3">
         <v>2922.955795994405</v>
       </c>
-      <c r="D3">
-        <v>11107.23202477874</v>
-      </c>
-      <c r="E3">
-        <v>7891.980649184892</v>
-      </c>
       <c r="F3">
-        <v>8184.276228784333</v>
+        <v>7307.389489986012</v>
       </c>
       <c r="G3">
-        <v>9645.754126781536</v>
+        <v>8476.571808383773</v>
       </c>
       <c r="H3">
-        <v>14322.48340037258</v>
+        <v>11984.11876357706</v>
       </c>
       <c r="I3">
-        <v>4969.024853190488</v>
+        <v>4384.433693991607</v>
       </c>
       <c r="J3">
-        <v>7891.980649184892</v>
+        <v>6722.798330787131</v>
       </c>
       <c r="K3">
-        <v>12568.70992277594</v>
+        <v>11691.82318397762</v>
       </c>
       <c r="L3">
-        <v>32152.51375593845</v>
+        <v>28352.67122114572</v>
       </c>
       <c r="M3">
-        <v>3799.842534792726</v>
+        <v>3507.546955193286</v>
       </c>
       <c r="N3">
-        <v>13737.8922411737</v>
+        <v>6430.502751187691</v>
       </c>
       <c r="O3">
-        <v>1169.182318397762</v>
+        <v>584.591159198881</v>
       </c>
       <c r="P3">
         <v>2046.069057196083</v>
       </c>
       <c r="Q3">
-        <v>40044.49440512334</v>
+        <v>24260.53310675356</v>
       </c>
       <c r="R3">
-        <v>7015.093910386571</v>
+        <v>4092.138114392166</v>
       </c>
       <c r="S3">
-        <v>13445.59666157426</v>
+        <v>7891.980649184892</v>
       </c>
       <c r="T3">
-        <v>5261.320432789928</v>
+        <v>4092.138114392166</v>
       </c>
       <c r="U3">
-        <v>30691.03585794125</v>
+        <v>23383.64636795524</v>
       </c>
       <c r="V3">
-        <v>7891.980649184892</v>
+        <v>4676.729273591048</v>
       </c>
       <c r="W3">
-        <v>8184.276228784333</v>
+        <v>3215.251375593845</v>
       </c>
       <c r="X3">
-        <v>1461.477897997202</v>
+        <v>876.8867387983214</v>
       </c>
     </row>
     <row r="4">
@@ -661,7 +661,7 @@
         <v>584.591159198881</v>
       </c>
       <c r="F6">
-        <v>27768.08006194684</v>
+        <v>26891.19332314852</v>
       </c>
       <c r="G6">
         <v>292.2955795994405</v>
@@ -703,7 +703,7 @@
         <v>1169.182318397762</v>
       </c>
       <c r="V6">
-        <v>60505.18497708417</v>
+        <v>59920.5938178853</v>
       </c>
       <c r="W6">
         <v>1169.182318397762</v>
@@ -877,7 +877,7 @@
         <v>1169.182318397762</v>
       </c>
       <c r="E12">
-        <v>4676.729273591048</v>
+        <v>4384.433693991607</v>
       </c>
       <c r="G12">
         <v>3215.251375593845</v>
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="N23">
-        <v>584.591159198881</v>
+        <v>292.2955795994405</v>
       </c>
       <c r="O23">
         <v>292.2955795994405</v>
@@ -1390,7 +1390,7 @@
         <v>292.2955795994405</v>
       </c>
       <c r="E29">
-        <v>19876.09941276195</v>
+        <v>19583.80383316251</v>
       </c>
       <c r="F29">
         <v>584.591159198881</v>
@@ -1402,7 +1402,7 @@
         <v>1169.182318397762</v>
       </c>
       <c r="I29">
-        <v>9061.162967582653</v>
+        <v>8184.276228784333</v>
       </c>
       <c r="J29">
         <v>1753.773477596643</v>
@@ -1423,7 +1423,7 @@
         <v>2338.364636795524</v>
       </c>
       <c r="Q29">
-        <v>56705.34244229145</v>
+        <v>54951.56896469481</v>
       </c>
       <c r="R29">
         <v>5261.320432789928</v>
@@ -1441,7 +1441,7 @@
         <v>12568.70992277594</v>
       </c>
       <c r="W29">
-        <v>35952.35629073118</v>
+        <v>35660.06071113174</v>
       </c>
       <c r="X29">
         <v>5553.616012389369</v>
@@ -1464,9 +1464,6 @@
       <c r="D30">
         <v>876.8867387983214</v>
       </c>
-      <c r="E30">
-        <v>292.2955795994405</v>
-      </c>
       <c r="F30">
         <v>292.2955795994405</v>
       </c>
@@ -1482,17 +1479,14 @@
       <c r="K30">
         <v>292.2955795994405</v>
       </c>
-      <c r="M30">
-        <v>292.2955795994405</v>
-      </c>
       <c r="N30">
-        <v>1169.182318397762</v>
+        <v>584.591159198881</v>
       </c>
       <c r="V30">
-        <v>1169.182318397762</v>
+        <v>292.2955795994405</v>
       </c>
       <c r="W30">
-        <v>3799.842534792726</v>
+        <v>2046.069057196083</v>
       </c>
     </row>
     <row r="31">
@@ -1528,95 +1522,74 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+          <t>Total density</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>7599.685069585453</v>
+      </c>
+      <c r="D32">
+        <v>14322.48340037258</v>
+      </c>
+      <c r="E32">
+        <v>34198.58281313453</v>
+      </c>
+      <c r="F32">
+        <v>47351.88389510936</v>
+      </c>
+      <c r="G32">
+        <v>18122.32593516531</v>
+      </c>
+      <c r="H32">
+        <v>30398.74027834181</v>
+      </c>
+      <c r="I32">
+        <v>30106.44469874237</v>
+      </c>
+      <c r="J32">
+        <v>14030.18782077314</v>
+      </c>
+      <c r="K32">
+        <v>30106.44469874237</v>
+      </c>
+      <c r="L32">
+        <v>82427.35344704222</v>
+      </c>
+      <c r="M32">
+        <v>7015.093910386571</v>
       </c>
       <c r="N32">
-        <v>584.591159198881</v>
+        <v>17245.43919636699</v>
+      </c>
+      <c r="O32">
+        <v>4384.433693991608</v>
+      </c>
+      <c r="P32">
+        <v>6722.798330787131</v>
       </c>
       <c r="Q32">
-        <v>584.591159198881</v>
+        <v>92073.10757382374</v>
+      </c>
+      <c r="R32">
+        <v>16953.14361676755</v>
+      </c>
+      <c r="S32">
+        <v>12568.70992277594</v>
+      </c>
+      <c r="T32">
+        <v>13737.8922411737</v>
       </c>
       <c r="U32">
-        <v>876.8867387983214</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Total density</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>7891.980649184893</v>
-      </c>
-      <c r="D33">
-        <v>19291.50825356307</v>
-      </c>
-      <c r="E33">
-        <v>40629.08556432222</v>
-      </c>
-      <c r="F33">
-        <v>49105.657372706</v>
-      </c>
-      <c r="G33">
-        <v>19291.50825356307</v>
-      </c>
-      <c r="H33">
-        <v>32737.10491513733</v>
-      </c>
-      <c r="I33">
-        <v>31567.92259673957</v>
-      </c>
-      <c r="J33">
-        <v>15199.3701391709</v>
-      </c>
-      <c r="K33">
-        <v>30983.33143754069</v>
-      </c>
-      <c r="L33">
-        <v>86227.19598183494</v>
-      </c>
-      <c r="M33">
-        <v>7599.685069585452</v>
-      </c>
-      <c r="N33">
-        <v>26014.3065843502</v>
-      </c>
-      <c r="O33">
-        <v>4969.024853190488</v>
-      </c>
-      <c r="P33">
-        <v>6722.798330787131</v>
-      </c>
-      <c r="Q33">
-        <v>110195.4335089891</v>
-      </c>
-      <c r="R33">
-        <v>19876.09941276195</v>
-      </c>
-      <c r="S33">
-        <v>18122.32593516531</v>
-      </c>
-      <c r="T33">
-        <v>14907.07455957146</v>
-      </c>
-      <c r="U33">
-        <v>101426.5661210059</v>
-      </c>
-      <c r="V33">
-        <v>97919.01916581256</v>
-      </c>
-      <c r="W33">
-        <v>86227.19598183494</v>
-      </c>
-      <c r="X33">
-        <v>14322.48340037258</v>
+        <v>93242.28989222151</v>
+      </c>
+      <c r="V32">
+        <v>93242.28989222151</v>
+      </c>
+      <c r="W32">
+        <v>78627.51091224949</v>
+      </c>
+      <c r="X32">
+        <v>13737.8922411737</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1599,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1769,7 +1742,7 @@
         <v>292.2955795994405</v>
       </c>
       <c r="P3">
-        <v>1461.477897997202</v>
+        <v>1169.182318397762</v>
       </c>
       <c r="Q3">
         <v>292.2955795994405</v>
@@ -1793,46 +1766,46 @@
         <v>1169.182318397762</v>
       </c>
       <c r="E4">
-        <v>3799.842534792726</v>
+        <v>3507.546955193286</v>
       </c>
       <c r="F4">
-        <v>14322.48340037258</v>
+        <v>13445.59666157426</v>
       </c>
       <c r="G4">
-        <v>4969.024853190488</v>
+        <v>2922.955795994405</v>
       </c>
       <c r="H4">
-        <v>13445.59666157426</v>
+        <v>11399.52760437818</v>
       </c>
       <c r="I4">
-        <v>5845.911591988809</v>
+        <v>4092.138114392166</v>
       </c>
       <c r="J4">
-        <v>5845.911591988809</v>
+        <v>4676.729273591048</v>
       </c>
       <c r="K4">
-        <v>32152.51375593845</v>
+        <v>27768.08006194684</v>
       </c>
       <c r="L4">
         <v>292.2955795994405</v>
       </c>
       <c r="M4">
-        <v>19876.09941276195</v>
+        <v>16368.55245756867</v>
       </c>
       <c r="N4">
-        <v>1753.773477596643</v>
+        <v>1461.477897997202</v>
       </c>
       <c r="O4">
         <v>7015.093910386571</v>
       </c>
       <c r="P4">
-        <v>8768.867387983213</v>
+        <v>6138.207171588249</v>
       </c>
       <c r="Q4">
         <v>2046.069057196083</v>
       </c>
       <c r="R4">
-        <v>44428.92809911495</v>
+        <v>43259.74578071719</v>
       </c>
     </row>
     <row r="5">
@@ -1928,7 +1901,7 @@
         <v>876.8867387983214</v>
       </c>
       <c r="P7">
-        <v>2630.660216394964</v>
+        <v>2338.364636795524</v>
       </c>
       <c r="Q7">
         <v>292.2955795994405</v>
@@ -2300,7 +2273,7 @@
         <v>21922.16846995803</v>
       </c>
       <c r="G21">
-        <v>27768.08006194684</v>
+        <v>27475.7844823474</v>
       </c>
       <c r="H21">
         <v>584.591159198881</v>
@@ -2318,7 +2291,7 @@
         <v>4092.138114392166</v>
       </c>
       <c r="M21">
-        <v>16953.14361676755</v>
+        <v>16660.84803716811</v>
       </c>
       <c r="N21">
         <v>1169.182318397762</v>
@@ -2348,16 +2321,16 @@
         <v>292.2955795994405</v>
       </c>
       <c r="E22">
-        <v>2046.069057196083</v>
+        <v>1461.477897997202</v>
       </c>
       <c r="F22">
         <v>1461.477897997202</v>
       </c>
       <c r="G22">
-        <v>6138.207171588249</v>
+        <v>4092.138114392166</v>
       </c>
       <c r="J22">
-        <v>1753.773477596643</v>
+        <v>1169.182318397762</v>
       </c>
       <c r="M22">
         <v>876.8867387983214</v>
@@ -2384,7 +2357,7 @@
         <v>292.2955795994405</v>
       </c>
       <c r="F23">
-        <v>2922.955795994405</v>
+        <v>2338.364636795524</v>
       </c>
       <c r="G23">
         <v>292.2955795994405</v>
@@ -2393,10 +2366,10 @@
         <v>584.591159198881</v>
       </c>
       <c r="I23">
-        <v>2630.660216394964</v>
+        <v>2338.364636795524</v>
       </c>
       <c r="K23">
-        <v>7599.685069585452</v>
+        <v>7307.389489986012</v>
       </c>
       <c r="L23">
         <v>292.2955795994405</v>
@@ -2411,71 +2384,56 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+          <t>Total density</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>24552.828686353</v>
+      </c>
+      <c r="D24">
+        <v>11399.52760437818</v>
+      </c>
+      <c r="E24">
+        <v>17537.73477596643</v>
+      </c>
+      <c r="F24">
+        <v>60505.18497708417</v>
+      </c>
+      <c r="G24">
+        <v>47644.1794747088</v>
+      </c>
+      <c r="H24">
+        <v>14614.77897997202</v>
       </c>
       <c r="I24">
-        <v>292.2955795994405</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Total density</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>24552.828686353</v>
-      </c>
-      <c r="D25">
+        <v>11984.11876357706</v>
+      </c>
+      <c r="J24">
+        <v>15783.96129836979</v>
+      </c>
+      <c r="K24">
+        <v>43552.04136031663</v>
+      </c>
+      <c r="L24">
+        <v>11107.23202477874</v>
+      </c>
+      <c r="M24">
+        <v>45013.51925831383</v>
+      </c>
+      <c r="N24">
+        <v>9061.162967582655</v>
+      </c>
+      <c r="O24">
+        <v>9938.049706380976</v>
+      </c>
+      <c r="P24">
+        <v>30398.74027834181</v>
+      </c>
+      <c r="Q24">
         <v>11399.52760437818</v>
       </c>
-      <c r="E25">
-        <v>18414.62151476475</v>
-      </c>
-      <c r="F25">
-        <v>61966.66287508138</v>
-      </c>
-      <c r="G25">
-        <v>52028.6131687004</v>
-      </c>
-      <c r="H25">
-        <v>16660.84803716811</v>
-      </c>
-      <c r="I25">
-        <v>14322.48340037258</v>
-      </c>
-      <c r="J25">
-        <v>17537.73477596643</v>
-      </c>
-      <c r="K25">
-        <v>48228.77063390768</v>
-      </c>
-      <c r="L25">
-        <v>11107.23202477874</v>
-      </c>
-      <c r="M25">
-        <v>48813.36179310656</v>
-      </c>
-      <c r="N25">
-        <v>9353.458547182096</v>
-      </c>
-      <c r="O25">
-        <v>9938.049706380976</v>
-      </c>
-      <c r="P25">
-        <v>33613.99165393565</v>
-      </c>
-      <c r="Q25">
-        <v>11399.52760437818</v>
-      </c>
-      <c r="R25">
-        <v>48521.06621350712</v>
+      <c r="R24">
+        <v>47351.88389510936</v>
       </c>
     </row>
   </sheetData>
@@ -2591,10 +2549,7 @@
         <v>584.591159198881</v>
       </c>
       <c r="J2">
-        <v>876.8867387983214</v>
-      </c>
-      <c r="P2">
-        <v>876.8867387983214</v>
+        <v>584.591159198881</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2570,10 @@
         <v>7015.093910386571</v>
       </c>
       <c r="E3">
+        <v>2046.069057196083</v>
+      </c>
+      <c r="F3">
         <v>2630.660216394964</v>
-      </c>
-      <c r="F3">
-        <v>4676.729273591048</v>
       </c>
       <c r="G3">
         <v>292.2955795994405</v>
@@ -2630,19 +2585,19 @@
         <v>2338.364636795524</v>
       </c>
       <c r="J3">
-        <v>10814.9364451793</v>
+        <v>9061.162967582653</v>
       </c>
       <c r="K3">
-        <v>1461.477897997202</v>
+        <v>876.8867387983214</v>
       </c>
       <c r="M3">
-        <v>19291.50825356307</v>
+        <v>10230.34528598042</v>
       </c>
       <c r="N3">
         <v>1169.182318397762</v>
       </c>
       <c r="O3">
-        <v>584.591159198881</v>
+        <v>292.2955795994405</v>
       </c>
       <c r="P3">
         <v>876.8867387983214</v>
@@ -2678,7 +2633,7 @@
         <v>292.2955795994405</v>
       </c>
       <c r="J4">
-        <v>26306.60216394964</v>
+        <v>25722.01100475076</v>
       </c>
       <c r="M4">
         <v>1753.773477596643</v>
@@ -2752,9 +2707,6 @@
       <c r="H7">
         <v>292.2955795994405</v>
       </c>
-      <c r="L7">
-        <v>292.2955795994405</v>
-      </c>
       <c r="N7">
         <v>292.2955795994405</v>
       </c>
@@ -2789,7 +2741,7 @@
         <v>292.2955795994405</v>
       </c>
       <c r="M8">
-        <v>18999.21267396363</v>
+        <v>18706.91709436419</v>
       </c>
       <c r="N8">
         <v>876.8867387983214</v>
@@ -2924,7 +2876,7 @@
         <v>292.2955795994405</v>
       </c>
       <c r="E15">
-        <v>19876.09941276195</v>
+        <v>19583.80383316251</v>
       </c>
       <c r="F15">
         <v>4676.729273591048</v>
@@ -2936,7 +2888,7 @@
         <v>876.8867387983214</v>
       </c>
       <c r="I15">
-        <v>6138.207171588249</v>
+        <v>5845.911591988809</v>
       </c>
       <c r="J15">
         <v>3507.546955193286</v>
@@ -2948,7 +2900,7 @@
         <v>1169.182318397762</v>
       </c>
       <c r="M15">
-        <v>39752.19882552391</v>
+        <v>39167.60766632502</v>
       </c>
       <c r="N15">
         <v>2046.069057196083</v>
@@ -2972,15 +2924,12 @@
         </is>
       </c>
       <c r="F16">
-        <v>1169.182318397762</v>
+        <v>876.8867387983214</v>
       </c>
       <c r="I16">
-        <v>1169.182318397762</v>
+        <v>876.8867387983214</v>
       </c>
       <c r="J16">
-        <v>584.591159198881</v>
-      </c>
-      <c r="N16">
         <v>584.591159198881</v>
       </c>
     </row>
@@ -2998,9 +2947,6 @@
       <c r="D17">
         <v>292.2955795994405</v>
       </c>
-      <c r="F17">
-        <v>292.2955795994405</v>
-      </c>
       <c r="I17">
         <v>876.8867387983214</v>
       </c>
@@ -3011,19 +2957,50 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+          <t>Total density</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>2046.069057196083</v>
+      </c>
+      <c r="D18">
+        <v>9353.458547182096</v>
+      </c>
+      <c r="E18">
+        <v>22506.75962915691</v>
+      </c>
+      <c r="F18">
+        <v>14322.48340037258</v>
+      </c>
+      <c r="G18">
+        <v>2630.660216394964</v>
+      </c>
+      <c r="H18">
+        <v>12568.70992277594</v>
+      </c>
+      <c r="I18">
+        <v>10522.64086557986</v>
       </c>
       <c r="J18">
-        <v>876.8867387983214</v>
+        <v>45013.51925831383</v>
+      </c>
+      <c r="K18">
+        <v>4676.729273591048</v>
+      </c>
+      <c r="L18">
+        <v>1461.477897997203</v>
+      </c>
+      <c r="M18">
+        <v>70735.53026306459</v>
       </c>
       <c r="N18">
-        <v>876.8867387983214</v>
+        <v>6722.798330787131</v>
+      </c>
+      <c r="O18">
+        <v>584.591159198881</v>
+      </c>
+      <c r="P18">
+        <v>3215.251375593845</v>
       </c>
     </row>
   </sheetData>
@@ -3033,7 +3010,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3173,7 +3150,7 @@
         </is>
       </c>
       <c r="E2">
-        <v>0.1301321221417072</v>
+        <v>0.03938756008997359</v>
       </c>
       <c r="G2">
         <v>0.01969378004498681</v>
@@ -3194,7 +3171,7 @@
         <v>0.5082526990054538</v>
       </c>
       <c r="W2">
-        <v>0.3469825224148396</v>
+        <v>0.3280327296159968</v>
       </c>
     </row>
     <row r="3">
@@ -3209,70 +3186,70 @@
         </is>
       </c>
       <c r="C3">
-        <v>1.330134113110874</v>
+        <v>1.303551562268258</v>
       </c>
       <c r="D3">
-        <v>5.425920868105625</v>
+        <v>3.299320852914467</v>
       </c>
       <c r="E3">
-        <v>3.046272190819757</v>
+        <v>1.605601064101032</v>
       </c>
       <c r="F3">
-        <v>131.4757760753411</v>
+        <v>131.0616377629729</v>
       </c>
       <c r="G3">
-        <v>2.248876507292699</v>
+        <v>2.030603778460761</v>
       </c>
       <c r="H3">
-        <v>47.28037814623703</v>
+        <v>47.09649172989599</v>
       </c>
       <c r="I3">
-        <v>2.067190445388781</v>
+        <v>2.018174815054592</v>
       </c>
       <c r="J3">
-        <v>1.981841979069374</v>
+        <v>1.943942393471688</v>
       </c>
       <c r="K3">
-        <v>4.119632437721649</v>
+        <v>3.210392495022437</v>
       </c>
       <c r="L3">
-        <v>10.08694156865416</v>
+        <v>9.76952889227724</v>
       </c>
       <c r="M3">
-        <v>0.9677838574065052</v>
+        <v>0.9632324060183305</v>
       </c>
       <c r="N3">
-        <v>7.60008122703149</v>
+        <v>4.841193087923011</v>
       </c>
       <c r="O3">
-        <v>0.4065768733633178</v>
+        <v>0.1546715446101087</v>
       </c>
       <c r="P3">
         <v>22.58930138241708</v>
       </c>
       <c r="Q3">
-        <v>18.56250542181386</v>
+        <v>18.3399659780769</v>
       </c>
       <c r="R3">
-        <v>3.045271090334137</v>
+        <v>0.4696747720951075</v>
       </c>
       <c r="S3">
-        <v>13.59463206739959</v>
+        <v>7.200406125332256</v>
       </c>
       <c r="T3">
-        <v>4.063748601596771</v>
+        <v>3.925320474611113</v>
       </c>
       <c r="U3">
-        <v>9.335814548348166</v>
+        <v>8.45125747663867</v>
       </c>
       <c r="V3">
-        <v>1.842659470898104</v>
+        <v>0.8203334667850115</v>
       </c>
       <c r="W3">
-        <v>2.979493864983881</v>
+        <v>0.4624537194119456</v>
       </c>
       <c r="X3">
-        <v>1.137775319132371</v>
+        <v>1.117906483264762</v>
       </c>
     </row>
     <row r="4">
@@ -3338,7 +3315,7 @@
         <v>0.02626663074343942</v>
       </c>
       <c r="F6">
-        <v>17.44780558339507</v>
+        <v>17.17817007245629</v>
       </c>
       <c r="G6">
         <v>0.01056940815831577</v>
@@ -3380,7 +3357,7 @@
         <v>0.8251735125600087</v>
       </c>
       <c r="V6">
-        <v>10.21239336836816</v>
+        <v>10.17804279185363</v>
       </c>
       <c r="W6">
         <v>0.1448999799704102</v>
@@ -3554,7 +3531,7 @@
         <v>0.01184929742748682</v>
       </c>
       <c r="E12">
-        <v>0.03284670662325025</v>
+        <v>0.02981213045279631</v>
       </c>
       <c r="G12">
         <v>0.05160843827302622</v>
@@ -3878,7 +3855,7 @@
         </is>
       </c>
       <c r="N23">
-        <v>10.73370293847566</v>
+        <v>10.20761478420569</v>
       </c>
       <c r="O23">
         <v>26.14876033057852</v>
@@ -4067,7 +4044,7 @@
         <v>0.007702456195372618</v>
       </c>
       <c r="E29">
-        <v>0.4092426027638946</v>
+        <v>0.3994394766970568</v>
       </c>
       <c r="F29">
         <v>0.001576312847222195</v>
@@ -4079,7 +4056,7 @@
         <v>0.01618172260363083</v>
       </c>
       <c r="I29">
-        <v>0.1956029998023745</v>
+        <v>0.1908764925915777</v>
       </c>
       <c r="J29">
         <v>0.02108777144250445</v>
@@ -4100,7 +4077,7 @@
         <v>0.007504643115809636</v>
       </c>
       <c r="Q29">
-        <v>0.4084082480145947</v>
+        <v>0.3965810389986888</v>
       </c>
       <c r="R29">
         <v>0.02713868536132665</v>
@@ -4118,7 +4095,7 @@
         <v>0.04577797289479356</v>
       </c>
       <c r="W29">
-        <v>0.1403777838576393</v>
+        <v>0.1401589640793617</v>
       </c>
       <c r="X29">
         <v>0.04483617256908662</v>
@@ -4141,9 +4118,6 @@
       <c r="D30">
         <v>4.129843893480257</v>
       </c>
-      <c r="E30">
-        <v>0.03283186983471074</v>
-      </c>
       <c r="F30">
         <v>0.02509814049586777</v>
       </c>
@@ -4159,17 +4133,14 @@
       <c r="K30">
         <v>0.2075298438934802</v>
       </c>
-      <c r="M30">
-        <v>0.1686179981634527</v>
-      </c>
       <c r="N30">
-        <v>0.4572719846295446</v>
+        <v>0.3468788380968779</v>
       </c>
       <c r="V30">
-        <v>0.5956106519742884</v>
+        <v>0.253186409550046</v>
       </c>
       <c r="W30">
-        <v>0.5143270488980716</v>
+        <v>0.3632420798898072</v>
       </c>
     </row>
     <row r="31">
@@ -4205,95 +4176,74 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+          <t>Total biomass</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>2.132158147750903</v>
+      </c>
+      <c r="D32">
+        <v>11.73677588763756</v>
+      </c>
+      <c r="E32">
+        <v>19.73492931912553</v>
+      </c>
+      <c r="F32">
+        <v>216.3570177216745</v>
+      </c>
+      <c r="G32">
+        <v>6.200878666927117</v>
+      </c>
+      <c r="H32">
+        <v>61.31427188884148</v>
+      </c>
+      <c r="I32">
+        <v>8.0843478484915</v>
+      </c>
+      <c r="J32">
+        <v>5.452796529564536</v>
+      </c>
+      <c r="K32">
+        <v>11.84958031948376</v>
+      </c>
+      <c r="L32">
+        <v>10.98289414296471</v>
+      </c>
+      <c r="M32">
+        <v>9.745675162914154</v>
       </c>
       <c r="N32">
-        <v>0.614480495187566</v>
+        <v>23.3724234653312</v>
+      </c>
+      <c r="O32">
+        <v>100.4855500161179</v>
+      </c>
+      <c r="P32">
+        <v>76.93071482448303</v>
       </c>
       <c r="Q32">
-        <v>0.149687801183047</v>
+        <v>19.22027356462698</v>
+      </c>
+      <c r="R32">
+        <v>8.122536303916752</v>
+      </c>
+      <c r="S32">
+        <v>17.51729781923733</v>
+      </c>
+      <c r="T32">
+        <v>13.06776434754203</v>
       </c>
       <c r="U32">
-        <v>1.684882920110193</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Total biomass</t>
-        </is>
-      </c>
-      <c r="C33">
-        <v>2.158740698593519</v>
-      </c>
-      <c r="D33">
-        <v>13.86337590282872</v>
-      </c>
-      <c r="E33">
-        <v>21.31201457996799</v>
-      </c>
-      <c r="F33">
-        <v>217.0407915449815</v>
-      </c>
-      <c r="G33">
-        <v>6.419151395759054</v>
-      </c>
-      <c r="H33">
-        <v>61.49815830518252</v>
-      </c>
-      <c r="I33">
-        <v>8.138089986036485</v>
-      </c>
-      <c r="J33">
-        <v>5.490696115162222</v>
-      </c>
-      <c r="K33">
-        <v>12.75882026218298</v>
-      </c>
-      <c r="L33">
-        <v>11.30030681934163</v>
-      </c>
-      <c r="M33">
-        <v>9.918844612465781</v>
-      </c>
-      <c r="N33">
-        <v>27.38227340042988</v>
-      </c>
-      <c r="O33">
-        <v>100.7374553448711</v>
-      </c>
-      <c r="P33">
-        <v>76.93071482448303</v>
-      </c>
-      <c r="Q33">
-        <v>19.60432801856289</v>
-      </c>
-      <c r="R33">
-        <v>10.69813262215578</v>
-      </c>
-      <c r="S33">
-        <v>23.91152376130466</v>
-      </c>
-      <c r="T33">
-        <v>13.20619247452769</v>
-      </c>
-      <c r="U33">
-        <v>27.07773566817551</v>
-      </c>
-      <c r="V33">
-        <v>31.40691986409602</v>
-      </c>
-      <c r="W33">
-        <v>26.71143218626195</v>
-      </c>
-      <c r="X33">
-        <v>4.867011304758565</v>
+        <v>24.50829567635582</v>
+      </c>
+      <c r="V32">
+        <v>30.00781904104415</v>
+      </c>
+      <c r="W32">
+        <v>24.02413845910463</v>
+      </c>
+      <c r="X32">
+        <v>4.847142468890956</v>
       </c>
     </row>
   </sheetData>
@@ -4303,7 +4253,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4446,7 +4396,7 @@
         <v>0.00738516751687005</v>
       </c>
       <c r="P3">
-        <v>0.4985371008499271</v>
+        <v>0.3333281682503156</v>
       </c>
       <c r="Q3">
         <v>0.07768102128855904</v>
@@ -4470,46 +4420,46 @@
         <v>0.498624628761238</v>
       </c>
       <c r="E4">
-        <v>4.613071037737708</v>
+        <v>4.557140702409947</v>
       </c>
       <c r="F4">
-        <v>2.096759784899434</v>
+        <v>2.029800122302856</v>
       </c>
       <c r="G4">
-        <v>7.995171412774602</v>
+        <v>6.628773189297762</v>
       </c>
       <c r="H4">
-        <v>78.0983251937197</v>
+        <v>72.12690850034579</v>
       </c>
       <c r="I4">
-        <v>7.664158681955914</v>
+        <v>4.364306988468218</v>
       </c>
       <c r="J4">
-        <v>11.05756555598078</v>
+        <v>10.9002949186709</v>
       </c>
       <c r="K4">
-        <v>7.080306991330033</v>
+        <v>6.768525885080172</v>
       </c>
       <c r="L4">
         <v>1.440359308534679</v>
       </c>
       <c r="M4">
-        <v>18.93528843924961</v>
+        <v>17.91129327786782</v>
       </c>
       <c r="N4">
-        <v>20.92407236637496</v>
+        <v>20.67199198179913</v>
       </c>
       <c r="O4">
         <v>24.95018123086074</v>
       </c>
       <c r="P4">
-        <v>7.388994431659038</v>
+        <v>6.87159749725245</v>
       </c>
       <c r="Q4">
         <v>2.671483145080287</v>
       </c>
       <c r="R4">
-        <v>8.753956346424573</v>
+        <v>8.659513730119947</v>
       </c>
     </row>
     <row r="5">
@@ -4605,7 +4555,7 @@
         <v>1.044852055250503</v>
       </c>
       <c r="P7">
-        <v>8.562508754855065</v>
+        <v>5.462369224419073</v>
       </c>
       <c r="Q7">
         <v>0.2065328412935891</v>
@@ -4977,7 +4927,7 @@
         <v>0.1759577492555055</v>
       </c>
       <c r="G21">
-        <v>0.1034785055238775</v>
+        <v>0.1033472136569109</v>
       </c>
       <c r="H21">
         <v>0.0371993623071973</v>
@@ -4995,7 +4945,7 @@
         <v>0.05064540004280117</v>
       </c>
       <c r="M21">
-        <v>0.143046482521041</v>
+        <v>0.1428003102704787</v>
       </c>
       <c r="N21">
         <v>0.07031773574951677</v>
@@ -5025,16 +4975,16 @@
         <v>0.8591735537190083</v>
       </c>
       <c r="E22">
-        <v>6.139867711202939</v>
+        <v>5.707167986685032</v>
       </c>
       <c r="F22">
         <v>0.05487996415119206</v>
       </c>
       <c r="G22">
-        <v>0.2305851124885216</v>
+        <v>0.1566120724288338</v>
       </c>
       <c r="J22">
-        <v>42.82235651974287</v>
+        <v>42.70733958907253</v>
       </c>
       <c r="M22">
         <v>0.01119120896464646</v>
@@ -5061,7 +5011,7 @@
         <v>0.007629791514284196</v>
       </c>
       <c r="F23">
-        <v>0.2047798364451092</v>
+        <v>0.1978161378408022</v>
       </c>
       <c r="G23">
         <v>0.002248063571173021</v>
@@ -5070,10 +5020,10 @@
         <v>0.5729610103821989</v>
       </c>
       <c r="I23">
-        <v>0.2625423707255933</v>
+        <v>0.1312917905096331</v>
       </c>
       <c r="K23">
-        <v>1.189445767811117</v>
+        <v>1.178048178018174</v>
       </c>
       <c r="L23">
         <v>1.582636754105808</v>
@@ -5088,71 +5038,56 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+          <t>Total biomass</t>
+        </is>
+      </c>
+      <c r="C24">
+        <v>27.78399592745505</v>
+      </c>
+      <c r="D24">
+        <v>1.421136088547933</v>
+      </c>
+      <c r="E24">
+        <v>45.04055451168393</v>
+      </c>
+      <c r="F24">
+        <v>11.15502494874933</v>
+      </c>
+      <c r="G24">
+        <v>8.407627708498573</v>
+      </c>
+      <c r="H24">
+        <v>73.0338065746906</v>
       </c>
       <c r="I24">
-        <v>0.6806978879706153</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Total biomass</t>
-        </is>
-      </c>
-      <c r="C25">
-        <v>27.78399592745505</v>
-      </c>
-      <c r="D25">
-        <v>1.421136088547933</v>
-      </c>
-      <c r="E25">
-        <v>45.5291845715296</v>
-      </c>
-      <c r="F25">
-        <v>11.22894830995021</v>
-      </c>
-      <c r="G25">
-        <v>9.848130263902068</v>
-      </c>
-      <c r="H25">
-        <v>79.00522326806451</v>
-      </c>
-      <c r="I25">
-        <v>8.869398137096445</v>
-      </c>
-      <c r="J25">
-        <v>92.56527885209808</v>
-      </c>
-      <c r="K25">
-        <v>12.63921279282822</v>
-      </c>
-      <c r="L25">
+        <v>4.757597975422173</v>
+      </c>
+      <c r="J24">
+        <v>92.29299128411786</v>
+      </c>
+      <c r="K24">
+        <v>12.31603409678542</v>
+      </c>
+      <c r="L24">
         <v>5.673187106366195</v>
       </c>
-      <c r="M25">
-        <v>26.34353319713299</v>
-      </c>
-      <c r="N25">
-        <v>21.74969644323699</v>
-      </c>
-      <c r="O25">
+      <c r="M24">
+        <v>25.31929186350064</v>
+      </c>
+      <c r="N24">
+        <v>21.49761605866116</v>
+      </c>
+      <c r="O24">
         <v>58.0900591557122</v>
       </c>
-      <c r="P25">
-        <v>37.40730051590729</v>
-      </c>
-      <c r="Q25">
+      <c r="P24">
+        <v>33.6245551184651</v>
+      </c>
+      <c r="Q24">
         <v>4.813939978292843</v>
       </c>
-      <c r="R25">
-        <v>9.076860332661873</v>
+      <c r="R24">
+        <v>8.982417716357247</v>
       </c>
     </row>
   </sheetData>
@@ -5268,10 +5203,7 @@
         <v>0.02520803845758311</v>
       </c>
       <c r="J2">
-        <v>0.3645537506105335</v>
-      </c>
-      <c r="P2">
-        <v>0.2103952168139424</v>
+        <v>0.3229779927377836</v>
       </c>
     </row>
     <row r="3">
@@ -5292,10 +5224,10 @@
         <v>1.350971429108267</v>
       </c>
       <c r="E3">
-        <v>2.313492366930837</v>
+        <v>2.310412681162485</v>
       </c>
       <c r="F3">
-        <v>6.588051703839408</v>
+        <v>4.99902973905936</v>
       </c>
       <c r="G3">
         <v>0.1444210536632366</v>
@@ -5307,19 +5239,19 @@
         <v>4.403115891811192</v>
       </c>
       <c r="J3">
-        <v>10.86615336015423</v>
+        <v>10.41017579443023</v>
       </c>
       <c r="K3">
-        <v>2.875466942390695</v>
+        <v>0.2995205125064215</v>
       </c>
       <c r="M3">
-        <v>3.621478575400068</v>
+        <v>1.88543975060591</v>
       </c>
       <c r="N3">
         <v>7.000701166436253</v>
       </c>
       <c r="O3">
-        <v>0.3881862866645177</v>
+        <v>0.00743987246143946</v>
       </c>
       <c r="P3">
         <v>1.014185908361165</v>
@@ -5355,7 +5287,7 @@
         <v>0.0642091545617683</v>
       </c>
       <c r="J4">
-        <v>1.344690214392945</v>
+        <v>1.342121261021132</v>
       </c>
       <c r="M4">
         <v>0.02604918719018241</v>
@@ -5429,9 +5361,6 @@
       <c r="H7">
         <v>47.81487603305786</v>
       </c>
-      <c r="L7">
-        <v>1.218719008264463</v>
-      </c>
       <c r="N7">
         <v>0.3361983471074381</v>
       </c>
@@ -5466,7 +5395,7 @@
         <v>0.002601065288960522</v>
       </c>
       <c r="M8">
-        <v>0.2350554106735973</v>
+        <v>0.2343122491624657</v>
       </c>
       <c r="N8">
         <v>0.008866329695305904</v>
@@ -5601,7 +5530,7 @@
         <v>0.0005251674678663146</v>
       </c>
       <c r="E15">
-        <v>0.0647641708211928</v>
+        <v>0.06448537821479464</v>
       </c>
       <c r="F15">
         <v>0.07627674536146235</v>
@@ -5613,7 +5542,7 @@
         <v>0.001790269963760323</v>
       </c>
       <c r="I15">
-        <v>0.05744667534686417</v>
+        <v>0.05666864946854371</v>
       </c>
       <c r="J15">
         <v>0.04984339718988683</v>
@@ -5625,7 +5554,7 @@
         <v>0.00421501597907287</v>
       </c>
       <c r="M15">
-        <v>0.2842130559613721</v>
+        <v>0.2816609689917564</v>
       </c>
       <c r="N15">
         <v>0.0221883255173518</v>
@@ -5649,17 +5578,14 @@
         </is>
       </c>
       <c r="F16">
-        <v>0.5824091597796142</v>
+        <v>0.5659727961432506</v>
       </c>
       <c r="I16">
-        <v>0.04466350292699724</v>
+        <v>0.04317188217401285</v>
       </c>
       <c r="J16">
         <v>0.7073693160561849</v>
       </c>
-      <c r="N16">
-        <v>0.1647268135904499</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -5675,9 +5601,6 @@
       <c r="D17">
         <v>0.02336623651249534</v>
       </c>
-      <c r="F17">
-        <v>0.1242566046611997</v>
-      </c>
       <c r="I17">
         <v>0.04018413633471777</v>
       </c>
@@ -5688,19 +5611,50 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
+          <t>Total biomass</t>
+        </is>
+      </c>
+      <c r="C18">
+        <v>1.516261456229678</v>
+      </c>
+      <c r="D18">
+        <v>1.623076300601538</v>
+      </c>
+      <c r="E18">
+        <v>2.379817261028046</v>
+      </c>
+      <c r="F18">
+        <v>6.017972301328077</v>
+      </c>
+      <c r="G18">
+        <v>0.4550897839888659</v>
+      </c>
+      <c r="H18">
+        <v>50.51679725358514</v>
+      </c>
+      <c r="I18">
+        <v>4.608252862020012</v>
       </c>
       <c r="J18">
-        <v>0.4013973063973065</v>
+        <v>17.08994922270016</v>
+      </c>
+      <c r="K18">
+        <v>0.315236954073958</v>
+      </c>
+      <c r="L18">
+        <v>0.006816081268033391</v>
+      </c>
+      <c r="M18">
+        <v>3.86062435811719</v>
       </c>
       <c r="N18">
-        <v>0.3097382920110193</v>
+        <v>8.207966139488617</v>
+      </c>
+      <c r="O18">
+        <v>0.008055809615109828</v>
+      </c>
+      <c r="P18">
+        <v>1.152867484387181</v>
       </c>
     </row>
   </sheetData>
